--- a/outputs-GTDB-r202/g__RF16.xlsx
+++ b/outputs-GTDB-r202/g__RF16.xlsx
@@ -1756,7 +1756,7 @@
       </c>
       <c r="BX5" t="inlineStr">
         <is>
-          <t>s__RF16 sp900317745</t>
+          <t>s__RF16 sp900317745(reject)</t>
         </is>
       </c>
     </row>
